--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rustam.z\source\repos\PhonebookBM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -59,9 +59,6 @@
     <t>C:\icon.png</t>
   </si>
   <si>
-    <t>Muhasibatlıq</t>
-  </si>
-  <si>
     <t>İT Departamenti</t>
   </si>
   <si>
@@ -80,15 +77,6 @@
     <t>+994772709923</t>
   </si>
   <si>
-    <t>+994772709941</t>
-  </si>
-  <si>
-    <t>Satınalma</t>
-  </si>
-  <si>
-    <t>Faktura Kontrol</t>
-  </si>
-  <si>
     <t>Zakir</t>
   </si>
   <si>
@@ -99,6 +87,18 @@
   </si>
   <si>
     <t>Otaq</t>
+  </si>
+  <si>
+    <t>+994772709942</t>
+  </si>
+  <si>
+    <t>Rzayev</t>
+  </si>
+  <si>
+    <t>Zəkəryəyev</t>
+  </si>
+  <si>
+    <t>Vəliyev</t>
   </si>
 </sst>
 </file>
@@ -418,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -484,12 +484,21 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -501,12 +510,21 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -518,12 +536,21 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -532,238 +559,16 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1">
         <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
